--- a/va_facility_data_2025-02-20/Union Grove VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Union%20Grove%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Union Grove VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Union%20Grove%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R3429ebf30a6b4b72a05794046857f8c9"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rdbea614fe8d04f2ea9f26a8a2a040f78"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb560b79772b146e2a259e7fa3999f221"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Re74c9d72612d4d2b854468f8b3869e2b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4dcceea60abe40ae8b17c6b4a84263d5"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R49ebbe3439d84d568fd1826c45a72886"/>
   </x:sheets>
 </x:workbook>
 </file>
